--- a/DateBase/orders/Dang Nguyen48_2026-2-27.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-27.xlsx
@@ -1202,6 +1202,9 @@
       <c r="C91" t="str">
         <v>87_紫霞非洲菊_undefined_Gerbera L._10stems</v>
       </c>
+      <c r="F91" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1263,7 +1266,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015153050305010101041110136181055520102030201510101555101510305030301552010510151010105515101010151086691112671141051612105520151010105515555103050</v>
+        <v>0151530503050101010411101361810555201020302015101015551015103050303015520105101510101055151010101510866911126711410516121055201510101055155551030510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-27.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,9 +1206,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F92" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L92"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1266,7 +1274,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151530503050101010411101361810555201020302015101015551015103050303015520105101510101055151010101510866911126711410516121055201510101055155551030510</v>
+        <v>015153050305010101041110136181055520102030201510101555101510305030301552010510151010105515101010151086691112671141051612105520151010105515555103051010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-27.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-27.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>845_干花紫罗兰_undefined_undefined_1bunch</v>
       </c>
+      <c r="F2" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -455,6 +458,9 @@
       </c>
       <c r="C3" t="str">
         <v>633_干花安娜深红_undefined_undefined_1stem</v>
+      </c>
+      <c r="F3" t="str">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1274,7 +1280,10 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015153050305010101041110136181055520102030201510101555101510305030301552010510151010105515101010151086691112671141051612105520151010105515555103051010</v>
+        <v>0101015153050305010101041110136181055520102030201510101555101510305030301552010510151010105515101010151086691112671141051612105520151010105515555103051010</v>
+      </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
       </c>
     </row>
   </sheetData>
